--- a/medicine/Sexualité et sexologie/Interspecies_Reviewers/Interspecies_Reviewers.xlsx
+++ b/medicine/Sexualité et sexologie/Interspecies_Reviewers/Interspecies_Reviewers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interspecies Reviewers (異種族レビュアーズ, Ishuzoku Rebyuāzu?) est une série de manga écrite par Amahara et dessinée par masha[4]. L'histoire dépeint les péripéties comiques et bouillonnantes d'un groupe d'aventuriers de divers espèces parcourant les divers « cabarets » des nombreuses ethnies de leur monde pour rédiger des critiques[5]. Le manga est prépublié dans le webzine Doradora Sharp#[a] de KADOKAWA en partenariat avec Niconico Seiga depuis août 2016[6].
-Une adaptation en une série télévisée d'animation par le studio Passione est diffusée pour la première fois entre le 11 janvier et le 28 mars 2020[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interspecies Reviewers (異種族レビュアーズ, Ishuzoku Rebyuāzu?) est une série de manga écrite par Amahara et dessinée par masha. L'histoire dépeint les péripéties comiques et bouillonnantes d'un groupe d'aventuriers de divers espèces parcourant les divers « cabarets » des nombreuses ethnies de leur monde pour rédiger des critiques. Le manga est prépublié dans le webzine Doradora Sharp#[a] de KADOKAWA en partenariat avec Niconico Seiga depuis août 2016.
+Une adaptation en une série télévisée d'animation par le studio Passione est diffusée pour la première fois entre le 11 janvier et le 28 mars 2020,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Intrigue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un monde où il existe de nombreuses et différentes espèces humanoïdes et où la prostitution est légale, il existe différents « cabarets » pour chaque type d'espèce gérées par des « succubes ». Comme chaque espèce a des opinions différentes sur la façon dont chaque courtisane travaille pour elle, divers visiteurs de maisons closes sont devenus des critiques, évaluant leurs expériences avec diverses succubes et les affichant dans le bistrot du coin. La série se concentre en grande partie sur un humain nommé Stunk, un elfe nommé Zel et un ange nommé Curimvael.
 </t>
@@ -545,18 +559,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Critiques
-Stunk (スタンク, Sutanku?)
-Voix japonaise : Junji Majima[9],[10], Chinatsu Akasaki (femme)
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stunk (スタンク, Sutanku?)
+Voix japonaise : Junji Majima Chinatsu Akasaki (femme)
 Un aventurier humain et l'un des principaux critiques. Il privilégie l'apparence quand il s'agit de succubes.
 Zel (ゼル, Zeru?)
-Voix japonaise : Yūsuke Kobayashi[9],[10], Hisako Kanemoto (femme)
+Voix japonaise : Yūsuke Kobayashi Hisako Kanemoto (femme)
 Un aventurier elfe et l'un des principaux critiques. Il privilégie les succubes qui ont un niveau de mana élevé.
 Curimvael (クリムヴェール, Kurimuvēru?)
-Voix japonaise : Miyu Tomita[9],[10]
+Voix japonaise : Miyu Tomita,
 Un ange à l'auréole cassée qui est sauvé par Stunk et Zel et travaille au bistrot. Bien que Curimvael est hermaphrodite, possédant à la fois des organes génitaux masculins et féminins, il choisit de s'identifier comme un homme afin d'éviter l'attention indésirable de Stunk et Zel.
 Kanchal (カンチャル, Kancharu?)
-Voix japonaise : Kaede Yuasa (ja)[9],[10]
+Voix japonaise : Kaede Yuasa (ja),
 Un critique lilluputien.
 Blues (ブルーズ, Burūzu?)
 Voix japonaise : Kenji Hamada
@@ -570,48 +589,7 @@
 Lulu (ルルゥ, Ruru?)
 Un critique de fées honoraire.
 Delibel (デリベル, Deriberu?)
-Un critique vampire.
-Succubes
-Elma (エルマ, Eruma?)
-Voix japonaise : Momoyo Koyama[9],[10]
-Une succube elfe. Elle est souvent méprisée par les espèces non humaines pour avoir plus de 500 ans.
-Mitsue (ミツエ, Mitsue?)
-Voix japonaise : Kyō Yaoya (ja)[9],[10]
-Une succube humaine d'âge moyen. Malgré son apparence physique, elle est une favorite de Zel en raison de ses niveaux élevés de mana.
-Mii (みー, Mī?)
-Voix japonaise : Carin Isobe (ja)[9],[10]
-Une succube fille-chatte.
-Okpa (オクパ, Okupa?)
-Voix japonaise : Mari Hino (ja)[9],[10]
-Une succube aux tentacules. Zel la décrit comme un « Dagon ».
-Eldry (エルドリー, Erudorī?)
-Voix japonaise : Rei Matsuzaki (ja)[9],[10]
-Une succube harpie.
-Aloe (アロエ, Aroe?)
-Voix japonaise : Yōko Hikasa[9],[10]
-La gérante d'un cabaret de succubes fées.
-Milky (ミルキー, Mirukī?)
-Voix japonaise : Yuri Katō (ja)[9],[10]
-Une succube minotaure aux yeux bleus et à la peau bronzée.
-Ginny (ギニー, Ginī?)
-Voix japonaise : Yuka Nukui (ja)[9],[10]
-Une succube minotaure aux yeux verts.
-Elza (エルザ, Eruza?)
-Voix japonaise : Makoto Koichi (ja)[9],[10]
-Une succube hyène.
-Piltia (ピルティア, Pirutia?)
-Voix japonaise : Shiori Izawa[9],[10]
-Une succube lilliputienne.
-Roana (ローナ, Rōna?)
-Voix japonaise : Takako Tanaka (ja)[9],[10]
-Une succube elfe.
-Tiaplate (ティアプレート, Tiapurēto?)
-Voix japonaise : Natsumi Takamori[9],[10]
-Une succube salamandre.
-Autres
-Maidrea (メイドリー, Meidorī?)
-Voix japonaise : M.A.O[9],[10]
-Une serveuse harpie du bistrot dans lequel le groupe de critiques affichent leurs expériences des cabarets qu'ils ont visité dernièrement.</t>
+Un critique vampire.</t>
         </is>
       </c>
     </row>
@@ -636,20 +614,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Productions et supports</t>
+          <t>Personnages</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Manga
-Interspecies Reviewers (異種族レビュアーズ?) est écrit par Amahara et dessiné par masha[4]. Un one shot spécial a été publié dans le magazine de prépublication de seinen manga Monthly Dragon Age en juillet 2016[11]. La série est officiellement lancée dans le webzine Doradora Sharp#[a] de KADOKAWA en partenariat avec Niconico Seiga depuis le 19 août 2016[6]. Les chapitres sont rassemblés et édités dans le format tankōbon par Fujimi Shobo avec le premier volume publié en septembre 2017[5] ; la série compte au total neuf volumes tankōbon[12].
-En Amérique du Nord, le manga est publié par la maison d'édition Yen Press depuis novembre 2018[13],[14]. En France, la série est éditée par Ototo depuis le 9 juillet 2021[15].
-Liste des volumes
-Anime
-Une adaptation en série télévisée d'animation par le studio Passione a été révélée par KADOKAWA en juin 2019[11],[17]. Celle-ci est réalisée par Yuki Ogawa avec les scripts écrits par Kazuyuki Fudeyasu et les character designs de Makoto Uno, accompagnée d'une bande originale composée par Kotone Uchihigashi chez KADOKAWA[4],[9]. Douze épisodes composent la série, répartis dans trois coffrets Blu-ray/DVD[18]. La série est diffusée pour la première fois au Japon entre le 11 janvier et le 28 mars 2020 sur AT-X, et un peu plus tard avec une version censurée sur Tokyo MX, BS11, KBS et SUN[7],[8]. Le 7 février, Tokyo MX a annulé la diffusion de la série en raison de « changements dans les circonstances au sein de la chaîne »[3] ; le 18 février, SUN a également annulé la diffusion de la série à la demande de la direction de la société[2]. Gifu Broadcasting (GBS) diffuse la série depuis le 29 février 2020[19] ; BBC l'a diffuse depuis 8 mars[20].
-Wakanim détient les droits de diffusion en simulcast de la série dans les pays francophones[21] ; mais également en Allemagne, en Autriche et dans les pays russophones[22],[23]. En Amérique du Nord, la série avait initialement été acquise par Funimation, avec la diffusion en simulcast des trois premiers épisodes sous-titrés et le premier doublé en anglais[24], mais le 31 janvier 2020, il a été décidé de retirer la série de son catalogue car « elle sortait des standards de l'entreprise »[25] ; Wakanim a également arrêté la diffusion de la série dans les pays nordiques, toutefois, AnimeLab a choisi de maintenir la diffusion en Australie et en Nouvelle-Zélande mais les futurs épisodes seront retardés pour « l'ajustement de [leur] approvisionnement du matériel »[26]. Amazon Prime Video a également retiré la série de son catalogue le 6 février[27].
-Les chansons de l'opening et de l'ending, respectivement intitulées Ikōze☆Paradise (イこうぜ☆パラダイス?) et Hanabira ondo (ハナビラ音頭?), sont interprétées par Junji Majima, Yūsuke Kobayashi et Miyu Tomita sous le nom de leur personnage[28],[29].
-Liste des épisodes</t>
+          <t>Succubes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elma (エルマ, Eruma?)
+Voix japonaise : Momoyo Koyama,
+Une succube elfe. Elle est souvent méprisée par les espèces non humaines pour avoir plus de 500 ans.
+Mitsue (ミツエ, Mitsue?)
+Voix japonaise : Kyō Yaoya (ja),
+Une succube humaine d'âge moyen. Malgré son apparence physique, elle est une favorite de Zel en raison de ses niveaux élevés de mana.
+Mii (みー, Mī?)
+Voix japonaise : Carin Isobe (ja),
+Une succube fille-chatte.
+Okpa (オクパ, Okupa?)
+Voix japonaise : Mari Hino (ja),
+Une succube aux tentacules. Zel la décrit comme un « Dagon ».
+Eldry (エルドリー, Erudorī?)
+Voix japonaise : Rei Matsuzaki (ja),
+Une succube harpie.
+Aloe (アロエ, Aroe?)
+Voix japonaise : Yōko Hikasa,
+La gérante d'un cabaret de succubes fées.
+Milky (ミルキー, Mirukī?)
+Voix japonaise : Yuri Katō (ja),
+Une succube minotaure aux yeux bleus et à la peau bronzée.
+Ginny (ギニー, Ginī?)
+Voix japonaise : Yuka Nukui (ja),
+Une succube minotaure aux yeux verts.
+Elza (エルザ, Eruza?)
+Voix japonaise : Makoto Koichi (ja),
+Une succube hyène.
+Piltia (ピルティア, Pirutia?)
+Voix japonaise : Shiori Izawa,
+Une succube lilliputienne.
+Roana (ローナ, Rōna?)
+Voix japonaise : Takako Tanaka (ja),
+Une succube elfe.
+Tiaplate (ティアプレート, Tiapurēto?)
+Voix japonaise : Natsumi Takamori,
+Une succube salamandre.</t>
         </is>
       </c>
     </row>
@@ -674,12 +685,129 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maidrea (メイドリー, Meidorī?)
+Voix japonaise : M.A.O,
+Une serveuse harpie du bistrot dans lequel le groupe de critiques affichent leurs expériences des cabarets qu'ils ont visité dernièrement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Productions et supports</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interspecies Reviewers (異種族レビュアーズ?) est écrit par Amahara et dessiné par masha. Un one shot spécial a été publié dans le magazine de prépublication de seinen manga Monthly Dragon Age en juillet 2016. La série est officiellement lancée dans le webzine Doradora Sharp#[a] de KADOKAWA en partenariat avec Niconico Seiga depuis le 19 août 2016. Les chapitres sont rassemblés et édités dans le format tankōbon par Fujimi Shobo avec le premier volume publié en septembre 2017 ; la série compte au total neuf volumes tankōbon.
+En Amérique du Nord, le manga est publié par la maison d'édition Yen Press depuis novembre 2018,. En France, la série est éditée par Ototo depuis le 9 juillet 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Productions et supports</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anime</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation en série télévisée d'animation par le studio Passione a été révélée par KADOKAWA en juin 2019,. Celle-ci est réalisée par Yuki Ogawa avec les scripts écrits par Kazuyuki Fudeyasu et les character designs de Makoto Uno, accompagnée d'une bande originale composée par Kotone Uchihigashi chez KADOKAWA,. Douze épisodes composent la série, répartis dans trois coffrets Blu-ray/DVD. La série est diffusée pour la première fois au Japon entre le 11 janvier et le 28 mars 2020 sur AT-X, et un peu plus tard avec une version censurée sur Tokyo MX, BS11, KBS et SUN,. Le 7 février, Tokyo MX a annulé la diffusion de la série en raison de « changements dans les circonstances au sein de la chaîne » ; le 18 février, SUN a également annulé la diffusion de la série à la demande de la direction de la société. Gifu Broadcasting (GBS) diffuse la série depuis le 29 février 2020 ; BBC l'a diffuse depuis 8 mars.
+Wakanim détient les droits de diffusion en simulcast de la série dans les pays francophones ; mais également en Allemagne, en Autriche et dans les pays russophones,. En Amérique du Nord, la série avait initialement été acquise par Funimation, avec la diffusion en simulcast des trois premiers épisodes sous-titrés et le premier doublé en anglais, mais le 31 janvier 2020, il a été décidé de retirer la série de son catalogue car « elle sortait des standards de l'entreprise » ; Wakanim a également arrêté la diffusion de la série dans les pays nordiques, toutefois, AnimeLab a choisi de maintenir la diffusion en Australie et en Nouvelle-Zélande mais les futurs épisodes seront retardés pour « l'ajustement de [leur] approvisionnement du matériel ». Amazon Prime Video a également retiré la série de son catalogue le 6 février.
+Les chansons de l'opening et de l'ending, respectivement intitulées Ikōze☆Paradise (イこうぜ☆パラダイス?) et Hanabira ondo (ハナビラ音頭?), sont interprétées par Junji Majima, Yūsuke Kobayashi et Miyu Tomita sous le nom de leur personnage,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interspecies_Reviewers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En août 2017, la série est classée 16e dans la catégorie « Web Manga » d'après les votes pour la troisième édition des Next Manga Awards, organisés par le magazine Da Vinci de Media Factory et le site web Niconico[30].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2017, la série est classée 16e dans la catégorie « Web Manga » d'après les votes pour la troisième édition des Next Manga Awards, organisés par le magazine Da Vinci de Media Factory et le site web Niconico.
 </t>
         </is>
       </c>
